--- a/RAW_PUBLIC/JanuarySales2024_public.xlsx
+++ b/RAW_PUBLIC/JanuarySales2024_public.xlsx
@@ -523,7 +523,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ORD_0000001</t>
+          <t>ORD_0006556</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ORD_0000002</t>
+          <t>ORD_0006557</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -661,7 +661,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORD_0000003</t>
+          <t>ORD_0006558</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORD_0000004</t>
+          <t>ORD_0006559</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -799,7 +799,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ORD_0000005</t>
+          <t>ORD_0006560</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ORD_0000006</t>
+          <t>ORD_0006561</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -937,7 +937,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ORD_0000007</t>
+          <t>ORD_0006562</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ORD_0000008</t>
+          <t>ORD_0006563</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORD_0000009</t>
+          <t>ORD_0006564</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ORD_0000010</t>
+          <t>ORD_0006565</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0006566</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1290,7 +1290,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0006566</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1359,7 +1359,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORD_0000011</t>
+          <t>ORD_0006566</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ORD_0000012</t>
+          <t>ORD_0006567</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1497,7 +1497,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORD_0000013</t>
+          <t>ORD_0006568</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1566,7 +1566,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ORD_0000014</t>
+          <t>ORD_0006569</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1635,7 +1635,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORD_0000015</t>
+          <t>ORD_0006570</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ORD_0000016</t>
+          <t>ORD_0006571</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ORD_0000017</t>
+          <t>ORD_0006572</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1842,7 +1842,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ORD_0000018</t>
+          <t>ORD_0006573</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1911,7 +1911,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ORD_0000019</t>
+          <t>ORD_0006574</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1980,7 +1980,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORD_0000020</t>
+          <t>ORD_0006575</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2049,7 +2049,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ORD_0000021</t>
+          <t>ORD_0006576</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2118,7 +2118,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ORD_0000022</t>
+          <t>ORD_0006577</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2187,7 +2187,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2260,7 +2260,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2333,7 +2333,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2406,7 +2406,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2479,7 +2479,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2552,7 +2552,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2625,7 +2625,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2698,7 +2698,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2771,7 +2771,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2844,7 +2844,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ORD_0000023</t>
+          <t>ORD_0006578</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2917,7 +2917,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ORD_0000024</t>
+          <t>ORD_0006579</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2986,7 +2986,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0006580</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3055,7 +3055,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0006580</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ORD_0000025</t>
+          <t>ORD_0006580</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3193,7 +3193,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0006581</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3262,7 +3262,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0006581</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3331,7 +3331,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORD_0000026</t>
+          <t>ORD_0006581</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3400,7 +3400,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ORD_0000027</t>
+          <t>ORD_0006582</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3469,7 +3469,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ORD_0000028</t>
+          <t>ORD_0006583</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3538,7 +3538,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0006584</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3611,7 +3611,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ORD_0000029</t>
+          <t>ORD_0006584</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3684,7 +3684,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0006585</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ORD_0000030</t>
+          <t>ORD_0006585</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3822,7 +3822,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ORD_0000031</t>
+          <t>ORD_0006586</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3891,7 +3891,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3960,7 +3960,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4029,7 +4029,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4098,7 +4098,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -4167,7 +4167,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4236,7 +4236,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -4305,7 +4305,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4374,7 +4374,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -4443,7 +4443,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4512,7 +4512,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ORD_0000032</t>
+          <t>ORD_0006587</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4581,7 +4581,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORD_0000033</t>
+          <t>ORD_0006588</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4650,7 +4650,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORD_0000034</t>
+          <t>ORD_0006589</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4719,7 +4719,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ORD_0000035</t>
+          <t>ORD_0006590</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4788,7 +4788,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0006591</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4861,7 +4861,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ORD_0000036</t>
+          <t>ORD_0006591</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4934,7 +4934,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0006592</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5003,7 +5003,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ORD_0000037</t>
+          <t>ORD_0006592</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5072,7 +5072,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ORD_0000038</t>
+          <t>ORD_0006593</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -5141,7 +5141,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ORD_0000039</t>
+          <t>ORD_0006594</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -5210,7 +5210,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ORD_0000040</t>
+          <t>ORD_0006595</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -5279,7 +5279,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORD_0000041</t>
+          <t>ORD_0006596</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -5348,7 +5348,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0006597</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -5421,7 +5421,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORD_0000042</t>
+          <t>ORD_0006597</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -5494,7 +5494,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ORD_0000043</t>
+          <t>ORD_0006598</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5563,7 +5563,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ORD_0000044</t>
+          <t>ORD_0006599</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5632,7 +5632,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORD_0000045</t>
+          <t>ORD_0006600</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5705,7 +5705,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0006601</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5774,7 +5774,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0006601</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5843,7 +5843,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ORD_0000046</t>
+          <t>ORD_0006601</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5912,7 +5912,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ORD_0000047</t>
+          <t>ORD_0006602</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5981,7 +5981,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ORD_0000048</t>
+          <t>ORD_0006603</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -6050,7 +6050,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0006604</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -6119,7 +6119,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORD_0000049</t>
+          <t>ORD_0006604</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -6188,7 +6188,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ORD_0000050</t>
+          <t>ORD_0006605</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -6257,7 +6257,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ORD_0000051</t>
+          <t>ORD_0006606</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -6326,7 +6326,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0006607</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -6395,7 +6395,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ORD_0000052</t>
+          <t>ORD_0006607</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6464,7 +6464,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORD_0000053</t>
+          <t>ORD_0006608</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -6533,7 +6533,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ORD_0000054</t>
+          <t>ORD_0006609</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -6602,7 +6602,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0006610</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -6671,7 +6671,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0006610</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6740,7 +6740,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ORD_0000055</t>
+          <t>ORD_0006610</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6809,7 +6809,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ORD_0000056</t>
+          <t>ORD_0006611</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6878,7 +6878,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ORD_0000057</t>
+          <t>ORD_0006612</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6951,7 +6951,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORD_0000058</t>
+          <t>ORD_0006613</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -7020,7 +7020,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORD_0000059</t>
+          <t>ORD_0006614</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -7089,7 +7089,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ORD_0000060</t>
+          <t>ORD_0006615</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0006616</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7231,7 +7231,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0006616</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7304,7 +7304,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ORD_0000061</t>
+          <t>ORD_0006616</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -7377,7 +7377,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ORD_0000062</t>
+          <t>ORD_0006617</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -7446,7 +7446,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ORD_0000063</t>
+          <t>ORD_0006618</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -7515,7 +7515,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ORD_0000064</t>
+          <t>ORD_0006619</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7584,7 +7584,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ORD_0000065</t>
+          <t>ORD_0006620</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -7653,7 +7653,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ORD_0000066</t>
+          <t>ORD_0006621</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -7722,7 +7722,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ORD_0000067</t>
+          <t>ORD_0006622</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -7795,7 +7795,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ORD_0000068</t>
+          <t>ORD_0006623</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7864,7 +7864,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0006624</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7933,7 +7933,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ORD_0000069</t>
+          <t>ORD_0006624</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -8002,7 +8002,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ORD_0000070</t>
+          <t>ORD_0006625</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -8071,7 +8071,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0006626</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -8140,7 +8140,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORD_0000071</t>
+          <t>ORD_0006626</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -8209,7 +8209,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0006627</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -8278,7 +8278,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ORD_0000072</t>
+          <t>ORD_0006627</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -8347,7 +8347,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ORD_0000073</t>
+          <t>ORD_0006628</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -8416,7 +8416,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ORD_0000074</t>
+          <t>ORD_0006629</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -8485,7 +8485,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORD_0000075</t>
+          <t>ORD_0006630</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -8554,7 +8554,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ORD_0000076</t>
+          <t>ORD_0006631</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -8623,7 +8623,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ORD_0000077</t>
+          <t>ORD_0006632</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -8692,7 +8692,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ORD_0000078</t>
+          <t>ORD_0006633</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -8765,7 +8765,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ORD_0000079</t>
+          <t>ORD_0006634</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -8838,7 +8838,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ORD_0000080</t>
+          <t>ORD_0006635</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -8907,7 +8907,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ORD_0000081</t>
+          <t>ORD_0006636</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8976,7 +8976,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ORD_0000082</t>
+          <t>ORD_0006637</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -9045,7 +9045,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ORD_0000083</t>
+          <t>ORD_0006638</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -9114,7 +9114,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ORD_0000084</t>
+          <t>ORD_0006639</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -9183,7 +9183,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ORD_0000085</t>
+          <t>ORD_0006640</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -9256,7 +9256,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ORD_0000086</t>
+          <t>ORD_0006641</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -9325,7 +9325,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ORD_0000087</t>
+          <t>ORD_0006642</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -9394,7 +9394,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0006643</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -9467,7 +9467,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0006643</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -9540,7 +9540,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0006643</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -9613,7 +9613,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ORD_0000088</t>
+          <t>ORD_0006643</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -9686,7 +9686,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0006644</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -9755,7 +9755,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ORD_0000089</t>
+          <t>ORD_0006644</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -9824,7 +9824,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0006645</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -9893,7 +9893,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORD_0000090</t>
+          <t>ORD_0006645</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -9962,7 +9962,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ORD_0000091</t>
+          <t>ORD_0006646</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -10031,7 +10031,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ORD_0000092</t>
+          <t>ORD_0006647</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -10100,7 +10100,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ORD_0000093</t>
+          <t>ORD_0006648</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -10169,7 +10169,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0006649</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -10238,7 +10238,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ORD_0000094</t>
+          <t>ORD_0006649</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -10307,7 +10307,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ORD_0000095</t>
+          <t>ORD_0006650</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -10376,7 +10376,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORD_0000096</t>
+          <t>ORD_0006651</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -10445,7 +10445,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ORD_0000097</t>
+          <t>ORD_0006652</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -10514,7 +10514,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ORD_0000098</t>
+          <t>ORD_0006653</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -10583,7 +10583,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ORD_0000099</t>
+          <t>ORD_0006654</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -10656,7 +10656,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ORD_0000100</t>
+          <t>ORD_0006655</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -10725,7 +10725,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORD_0000101</t>
+          <t>ORD_0006656</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -10794,7 +10794,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ORD_0000102</t>
+          <t>ORD_0006657</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -10863,7 +10863,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ORD_0000103</t>
+          <t>ORD_0006658</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -10932,7 +10932,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ORD_0000104</t>
+          <t>ORD_0006659</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11001,7 +11001,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ORD_0000105</t>
+          <t>ORD_0006660</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11074,7 +11074,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ORD_0000106</t>
+          <t>ORD_0006661</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11143,7 +11143,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ORD_0000107</t>
+          <t>ORD_0006662</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -11212,7 +11212,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORD_0000108</t>
+          <t>ORD_0006663</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -11281,7 +11281,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ORD_0000109</t>
+          <t>ORD_0006664</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -11350,7 +11350,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ORD_0000110</t>
+          <t>ORD_0006665</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -11419,7 +11419,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ORD_0000111</t>
+          <t>ORD_0006666</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -11488,7 +11488,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ORD_0000112</t>
+          <t>ORD_0006667</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -11557,7 +11557,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ORD_0000113</t>
+          <t>ORD_0006668</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -11626,7 +11626,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ORD_0000114</t>
+          <t>ORD_0006669</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -11699,7 +11699,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ORD_0000115</t>
+          <t>ORD_0006670</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -11768,7 +11768,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ORD_0000116</t>
+          <t>ORD_0006671</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -11837,7 +11837,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ORD_0000117</t>
+          <t>ORD_0006672</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -11906,7 +11906,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ORD_0000118</t>
+          <t>ORD_0006673</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -11975,7 +11975,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ORD_0000119</t>
+          <t>ORD_0006674</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -12044,7 +12044,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ORD_0000120</t>
+          <t>ORD_0006675</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -12113,7 +12113,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORD_0000121</t>
+          <t>ORD_0006676</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -12182,7 +12182,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ORD_0000122</t>
+          <t>ORD_0006677</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -12251,7 +12251,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -12324,7 +12324,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -12397,7 +12397,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -12470,7 +12470,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -12543,7 +12543,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -12616,7 +12616,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -12689,7 +12689,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ORD_0000123</t>
+          <t>ORD_0006678</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -12762,7 +12762,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ORD_0000124</t>
+          <t>ORD_0006679</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -12831,7 +12831,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0006680</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -12900,7 +12900,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ORD_0000125</t>
+          <t>ORD_0006680</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -12969,7 +12969,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0006681</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -13038,7 +13038,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ORD_0000126</t>
+          <t>ORD_0006681</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -13107,7 +13107,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ORD_0000127</t>
+          <t>ORD_0006682</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -13180,7 +13180,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ORD_0000128</t>
+          <t>ORD_0006683</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -13249,7 +13249,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0006684</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -13318,7 +13318,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0006684</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -13387,7 +13387,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0006684</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -13456,7 +13456,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0006684</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -13525,7 +13525,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ORD_0000129</t>
+          <t>ORD_0006684</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -13594,7 +13594,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORD_0000130</t>
+          <t>ORD_0006685</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -13667,7 +13667,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ORD_0000131</t>
+          <t>ORD_0006686</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -13740,7 +13740,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ORD_0000132</t>
+          <t>ORD_0006687</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -13809,7 +13809,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ORD_0000133</t>
+          <t>ORD_0006688</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORD_0000134</t>
+          <t>ORD_0006689</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -13947,7 +13947,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORD_0000135</t>
+          <t>ORD_0006690</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -14016,7 +14016,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0006691</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -14085,7 +14085,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0006691</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -14154,7 +14154,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ORD_0000136</t>
+          <t>ORD_0006691</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -14223,7 +14223,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORD_0000137</t>
+          <t>ORD_0006692</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -14296,7 +14296,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ORD_0000138</t>
+          <t>ORD_0006693</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -14369,7 +14369,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ORD_0000139</t>
+          <t>ORD_0006694</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -14438,7 +14438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORD_0000140</t>
+          <t>ORD_0006695</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -14507,7 +14507,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0006696</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -14576,7 +14576,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ORD_0000141</t>
+          <t>ORD_0006696</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -14645,7 +14645,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>ORD_0000142</t>
+          <t>ORD_0006697</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -14714,7 +14714,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ORD_0000143</t>
+          <t>ORD_0006698</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -14783,7 +14783,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ORD_0000144</t>
+          <t>ORD_0006699</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -14856,7 +14856,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ORD_0000145</t>
+          <t>ORD_0006700</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -14925,7 +14925,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ORD_0000146</t>
+          <t>ORD_0006701</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -14994,7 +14994,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ORD_0000147</t>
+          <t>ORD_0006702</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -15063,7 +15063,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0006703</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -15132,7 +15132,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0006703</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -15201,7 +15201,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ORD_0000148</t>
+          <t>ORD_0006703</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -15270,7 +15270,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ORD_0000149</t>
+          <t>ORD_0006704</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -15339,7 +15339,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ORD_0000150</t>
+          <t>ORD_0006705</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -15412,7 +15412,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ORD_0000151</t>
+          <t>ORD_0006706</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -15481,7 +15481,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0006707</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -15550,7 +15550,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0006707</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -15619,7 +15619,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ORD_0000152</t>
+          <t>ORD_0006707</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -15688,7 +15688,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ORD_0000153</t>
+          <t>ORD_0006708</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -15761,7 +15761,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ORD_0000154</t>
+          <t>ORD_0006709</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -15830,7 +15830,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ORD_0000155</t>
+          <t>ORD_0006710</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -15899,7 +15899,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ORD_0000156</t>
+          <t>ORD_0006711</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -15968,7 +15968,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>ORD_0000157</t>
+          <t>ORD_0006712</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -16037,7 +16037,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>ORD_0000158</t>
+          <t>ORD_0006713</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -16106,7 +16106,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0006714</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -16175,7 +16175,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ORD_0000159</t>
+          <t>ORD_0006714</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -16244,7 +16244,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>ORD_0000160</t>
+          <t>ORD_0006715</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -16313,7 +16313,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ORD_0000161</t>
+          <t>ORD_0006716</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -16382,7 +16382,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ORD_0000162</t>
+          <t>ORD_0006717</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -16455,7 +16455,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>ORD_0000163</t>
+          <t>ORD_0006718</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -16524,7 +16524,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ORD_0000164</t>
+          <t>ORD_0006719</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -16593,7 +16593,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>ORD_0000165</t>
+          <t>ORD_0006720</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -16662,7 +16662,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>ORD_0000166</t>
+          <t>ORD_0006721</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -16731,7 +16731,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0006722</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -16800,7 +16800,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0006722</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -16869,7 +16869,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ORD_0000167</t>
+          <t>ORD_0006722</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -16938,7 +16938,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ORD_0000168</t>
+          <t>ORD_0006723</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -17007,7 +17007,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ORD_0000169</t>
+          <t>ORD_0006724</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -17076,7 +17076,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ORD_0000170</t>
+          <t>ORD_0006725</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -17145,7 +17145,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ORD_0000171</t>
+          <t>ORD_0006726</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -17218,7 +17218,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ORD_0000172</t>
+          <t>ORD_0006727</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -17287,7 +17287,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0006728</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -17356,7 +17356,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ORD_0000173</t>
+          <t>ORD_0006728</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -17425,7 +17425,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ORD_0000174</t>
+          <t>ORD_0006729</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -17494,7 +17494,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ORD_0000175</t>
+          <t>ORD_0006730</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -17563,7 +17563,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0006731</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -17636,7 +17636,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0006731</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -17709,7 +17709,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ORD_0000176</t>
+          <t>ORD_0006731</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -17782,7 +17782,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0006732</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -17855,7 +17855,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ORD_0000177</t>
+          <t>ORD_0006732</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -17928,7 +17928,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ORD_0000178</t>
+          <t>ORD_0006733</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -17997,7 +17997,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ORD_0000179</t>
+          <t>ORD_0006734</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -18066,7 +18066,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0006735</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -18135,7 +18135,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ORD_0000180</t>
+          <t>ORD_0006735</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -18204,7 +18204,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ORD_0000181</t>
+          <t>ORD_0006736</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -18273,7 +18273,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ORD_0000182</t>
+          <t>ORD_0006737</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -18342,7 +18342,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ORD_0000183</t>
+          <t>ORD_0006738</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -18411,7 +18411,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>ORD_0000184</t>
+          <t>ORD_0006739</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -18480,7 +18480,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ORD_0000185</t>
+          <t>ORD_0006740</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -18549,7 +18549,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ORD_0000186</t>
+          <t>ORD_0006741</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -18618,7 +18618,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ORD_0000187</t>
+          <t>ORD_0006742</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -18687,7 +18687,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>ORD_0000188</t>
+          <t>ORD_0006743</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -18756,7 +18756,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ORD_0000189</t>
+          <t>ORD_0006744</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -18825,7 +18825,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ORD_0000190</t>
+          <t>ORD_0006745</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -18894,7 +18894,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ORD_0000191</t>
+          <t>ORD_0006746</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -18963,7 +18963,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ORD_0000192</t>
+          <t>ORD_0006747</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -19032,7 +19032,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ORD_0000193</t>
+          <t>ORD_0006748</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -19101,7 +19101,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ORD_0000194</t>
+          <t>ORD_0006749</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -19170,7 +19170,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ORD_0000195</t>
+          <t>ORD_0006750</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -19239,7 +19239,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0006751</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -19308,7 +19308,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>ORD_0000196</t>
+          <t>ORD_0006751</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -19377,7 +19377,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>ORD_0000197</t>
+          <t>ORD_0006752</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -19446,7 +19446,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ORD_0000198</t>
+          <t>ORD_0006753</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -19515,7 +19515,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>ORD_0000199</t>
+          <t>ORD_0006754</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -19584,7 +19584,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>ORD_0000200</t>
+          <t>ORD_0006755</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -19653,7 +19653,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>ORD_0000201</t>
+          <t>ORD_0006756</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -19722,7 +19722,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0006757</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -19791,7 +19791,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0006757</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -19860,7 +19860,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ORD_0000202</t>
+          <t>ORD_0006757</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -19929,7 +19929,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ORD_0000203</t>
+          <t>ORD_0006758</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -19998,7 +19998,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0006759</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -20067,7 +20067,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0006759</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -20136,7 +20136,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>ORD_0000204</t>
+          <t>ORD_0006759</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -20205,7 +20205,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ORD_0000205</t>
+          <t>ORD_0006760</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -20274,7 +20274,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>ORD_0000206</t>
+          <t>ORD_0006761</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -20343,7 +20343,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ORD_0000207</t>
+          <t>ORD_0006762</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -20412,7 +20412,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>ORD_0000208</t>
+          <t>ORD_0006763</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -20481,7 +20481,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>ORD_0000209</t>
+          <t>ORD_0006764</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -20554,7 +20554,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>ORD_0000210</t>
+          <t>ORD_0006765</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -20623,7 +20623,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>ORD_0000211</t>
+          <t>ORD_0006766</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -20692,7 +20692,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>ORD_0000212</t>
+          <t>ORD_0006767</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -20761,7 +20761,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ORD_0000213</t>
+          <t>ORD_0006768</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -20830,7 +20830,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0006769</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -20903,7 +20903,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0006769</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -20976,7 +20976,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>ORD_0000214</t>
+          <t>ORD_0006769</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -21049,7 +21049,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>ORD_0000215</t>
+          <t>ORD_0006770</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -21118,7 +21118,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>ORD_0000216</t>
+          <t>ORD_0006771</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -21187,7 +21187,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>ORD_0000217</t>
+          <t>ORD_0006772</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -21260,7 +21260,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ORD_0000218</t>
+          <t>ORD_0006773</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -21329,7 +21329,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ORD_0000219</t>
+          <t>ORD_0006774</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -21402,7 +21402,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>ORD_0000220</t>
+          <t>ORD_0006775</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -21471,7 +21471,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ORD_0000221</t>
+          <t>ORD_0006776</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -21540,7 +21540,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>ORD_0000222</t>
+          <t>ORD_0006777</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -21609,7 +21609,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ORD_0000223</t>
+          <t>ORD_0006778</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -21678,7 +21678,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ORD_0000224</t>
+          <t>ORD_0006779</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -21747,7 +21747,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ORD_0000225</t>
+          <t>ORD_0006780</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -21816,7 +21816,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>ORD_0000226</t>
+          <t>ORD_0006781</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -21885,7 +21885,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ORD_0000227</t>
+          <t>ORD_0006782</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -21954,7 +21954,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>ORD_0000228</t>
+          <t>ORD_0006783</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -22023,7 +22023,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>ORD_0000229</t>
+          <t>ORD_0006784</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -22092,7 +22092,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ORD_0000230</t>
+          <t>ORD_0006785</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -22161,7 +22161,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ORD_0000231</t>
+          <t>ORD_0006786</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -22230,7 +22230,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -22299,7 +22299,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -22368,7 +22368,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -22437,7 +22437,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -22506,7 +22506,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -22575,7 +22575,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ORD_0000232</t>
+          <t>ORD_0006787</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -22644,7 +22644,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>ORD_0000233</t>
+          <t>ORD_0006788</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -22713,7 +22713,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>ORD_0000234</t>
+          <t>ORD_0006789</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -22782,7 +22782,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ORD_0000235</t>
+          <t>ORD_0006790</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -22851,7 +22851,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ORD_0000236</t>
+          <t>ORD_0006791</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -22924,7 +22924,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0006792</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -22993,7 +22993,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0006792</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -23062,7 +23062,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ORD_0000237</t>
+          <t>ORD_0006792</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -23131,7 +23131,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ORD_0000238</t>
+          <t>ORD_0006793</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -23200,7 +23200,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ORD_0000239</t>
+          <t>ORD_0006794</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -23269,7 +23269,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ORD_0000240</t>
+          <t>ORD_0006795</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -23338,7 +23338,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0006796</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -23411,7 +23411,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0006796</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -23484,7 +23484,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ORD_0000241</t>
+          <t>ORD_0006796</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -23557,7 +23557,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ORD_0000242</t>
+          <t>ORD_0006797</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -23626,7 +23626,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ORD_0000243</t>
+          <t>ORD_0006798</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -23695,7 +23695,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ORD_0000244</t>
+          <t>ORD_0006799</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -23764,7 +23764,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0006800</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -23833,7 +23833,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ORD_0000245</t>
+          <t>ORD_0006800</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -23902,7 +23902,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ORD_0000246</t>
+          <t>ORD_0006801</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -23971,7 +23971,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ORD_0000247</t>
+          <t>ORD_0006802</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -24040,7 +24040,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ORD_0000248</t>
+          <t>ORD_0006803</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -24109,7 +24109,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ORD_0000249</t>
+          <t>ORD_0006804</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -24178,7 +24178,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ORD_0000250</t>
+          <t>ORD_0006805</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -24247,7 +24247,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ORD_0000251</t>
+          <t>ORD_0006806</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -24316,7 +24316,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ORD_0000252</t>
+          <t>ORD_0006807</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -24385,7 +24385,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ORD_0000253</t>
+          <t>ORD_0006808</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -24454,7 +24454,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ORD_0000254</t>
+          <t>ORD_0006809</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -24523,7 +24523,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ORD_0000255</t>
+          <t>ORD_0006810</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -24596,7 +24596,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ORD_0000256</t>
+          <t>ORD_0006811</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -24665,7 +24665,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ORD_0000257</t>
+          <t>ORD_0006812</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -24734,7 +24734,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ORD_0000258</t>
+          <t>ORD_0006813</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -24803,7 +24803,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ORD_0000259</t>
+          <t>ORD_0006814</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -24876,7 +24876,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0006815</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -24945,7 +24945,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0006815</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -25014,7 +25014,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0006815</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -25083,7 +25083,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ORD_0000260</t>
+          <t>ORD_0006815</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -25152,7 +25152,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ORD_0000261</t>
+          <t>ORD_0006816</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -25221,7 +25221,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ORD_0000262</t>
+          <t>ORD_0006817</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -25290,7 +25290,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ORD_0000263</t>
+          <t>ORD_0006818</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -25359,7 +25359,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ORD_0000264</t>
+          <t>ORD_0006819</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -25428,7 +25428,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ORD_0000265</t>
+          <t>ORD_0006820</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -25497,7 +25497,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ORD_0000266</t>
+          <t>ORD_0006821</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -25566,7 +25566,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ORD_0000267</t>
+          <t>ORD_0006822</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -25635,7 +25635,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ORD_0000268</t>
+          <t>ORD_0006823</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -25704,7 +25704,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0006824</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -25773,7 +25773,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0006824</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -25842,7 +25842,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ORD_0000269</t>
+          <t>ORD_0006824</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -25911,7 +25911,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ORD_0000270</t>
+          <t>ORD_0006825</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -25980,7 +25980,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ORD_0000271</t>
+          <t>ORD_0006826</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -26053,7 +26053,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ORD_0000272</t>
+          <t>ORD_0006827</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -26122,7 +26122,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0006828</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -26191,7 +26191,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0006828</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -26260,7 +26260,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0006828</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -26329,7 +26329,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0006828</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -26398,7 +26398,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ORD_0000273</t>
+          <t>ORD_0006828</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -26467,7 +26467,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ORD_0000274</t>
+          <t>ORD_0006829</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -26536,7 +26536,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ORD_0000275</t>
+          <t>ORD_0006830</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -26605,7 +26605,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ORD_0000276</t>
+          <t>ORD_0006831</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -26674,7 +26674,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ORD_0000277</t>
+          <t>ORD_0006832</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -26743,7 +26743,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ORD_0000278</t>
+          <t>ORD_0006833</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -26812,7 +26812,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ORD_0000279</t>
+          <t>ORD_0006834</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -26881,7 +26881,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ORD_0000280</t>
+          <t>ORD_0006835</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -26950,7 +26950,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ORD_0000281</t>
+          <t>ORD_0006836</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -27023,7 +27023,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ORD_0000282</t>
+          <t>ORD_0006837</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -27092,7 +27092,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ORD_0000283</t>
+          <t>ORD_0006838</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -27161,7 +27161,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ORD_0000284</t>
+          <t>ORD_0006839</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -27230,7 +27230,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ORD_0000285</t>
+          <t>ORD_0006840</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -27299,7 +27299,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ORD_0000286</t>
+          <t>ORD_0006841</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -27368,7 +27368,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ORD_0000287</t>
+          <t>ORD_0006842</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -27437,7 +27437,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ORD_0000288</t>
+          <t>ORD_0006843</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -27510,7 +27510,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ORD_0000289</t>
+          <t>ORD_0006844</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -27579,7 +27579,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ORD_0000290</t>
+          <t>ORD_0006845</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -27648,7 +27648,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ORD_0000291</t>
+          <t>ORD_0006846</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -27717,7 +27717,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0006847</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -27786,7 +27786,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ORD_0000292</t>
+          <t>ORD_0006847</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -27855,7 +27855,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ORD_0000293</t>
+          <t>ORD_0006848</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -27928,7 +27928,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0006849</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -28001,7 +28001,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ORD_0000294</t>
+          <t>ORD_0006849</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -28074,7 +28074,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ORD_0000295</t>
+          <t>ORD_0006850</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -28143,7 +28143,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ORD_0000296</t>
+          <t>ORD_0006851</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -28212,7 +28212,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0006852</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -28281,7 +28281,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ORD_0000297</t>
+          <t>ORD_0006852</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -28350,7 +28350,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ORD_0000298</t>
+          <t>ORD_0006853</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -28419,7 +28419,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ORD_0000299</t>
+          <t>ORD_0006854</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -28488,7 +28488,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ORD_0000300</t>
+          <t>ORD_0006855</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -28557,7 +28557,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0006856</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -28626,7 +28626,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ORD_0000301</t>
+          <t>ORD_0006856</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -28695,7 +28695,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0006857</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -28768,7 +28768,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ORD_0000302</t>
+          <t>ORD_0006857</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -28841,7 +28841,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ORD_0000303</t>
+          <t>ORD_0006858</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -28910,7 +28910,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ORD_0000304</t>
+          <t>ORD_0006859</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -28979,7 +28979,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0006860</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -29052,7 +29052,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0006860</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -29125,7 +29125,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0006860</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -29198,7 +29198,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ORD_0000305</t>
+          <t>ORD_0006860</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -29271,7 +29271,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0006861</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -29340,7 +29340,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0006861</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -29409,7 +29409,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0006861</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -29478,7 +29478,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ORD_0000306</t>
+          <t>ORD_0006861</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -29547,7 +29547,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ORD_0000307</t>
+          <t>ORD_0006862</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -29616,7 +29616,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ORD_0000308</t>
+          <t>ORD_0006863</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -29685,7 +29685,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ORD_0000309</t>
+          <t>ORD_0006864</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -29754,7 +29754,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0006865</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -29823,7 +29823,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ORD_0000310</t>
+          <t>ORD_0006865</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -29892,7 +29892,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ORD_0000311</t>
+          <t>ORD_0006866</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -29961,7 +29961,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ORD_0000312</t>
+          <t>ORD_0006867</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -30030,7 +30030,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ORD_0000313</t>
+          <t>ORD_0006868</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -30099,7 +30099,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ORD_0000314</t>
+          <t>ORD_0006869</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -30168,7 +30168,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ORD_0000315</t>
+          <t>ORD_0006870</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -30237,7 +30237,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ORD_0000316</t>
+          <t>ORD_0006871</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -30306,7 +30306,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ORD_0000317</t>
+          <t>ORD_0006872</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -30379,7 +30379,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ORD_0000318</t>
+          <t>ORD_0006873</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -30452,7 +30452,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -30521,7 +30521,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -30590,7 +30590,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -30659,7 +30659,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -30728,7 +30728,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -30797,7 +30797,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -30866,7 +30866,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -30935,7 +30935,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ORD_0000319</t>
+          <t>ORD_0006874</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -31004,7 +31004,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ORD_0000320</t>
+          <t>ORD_0006875</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -31073,7 +31073,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0006876</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -31142,7 +31142,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ORD_0000321</t>
+          <t>ORD_0006876</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -31211,7 +31211,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ORD_0000322</t>
+          <t>ORD_0006877</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -31280,7 +31280,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ORD_0000323</t>
+          <t>ORD_0006878</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -31349,7 +31349,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ORD_0000324</t>
+          <t>ORD_0006879</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -31418,7 +31418,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ORD_0000325</t>
+          <t>ORD_0006880</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -31487,7 +31487,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ORD_0000326</t>
+          <t>ORD_0006881</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -31556,7 +31556,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ORD_0000327</t>
+          <t>ORD_0006882</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -31625,7 +31625,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ORD_0000328</t>
+          <t>ORD_0006883</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -31694,7 +31694,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ORD_0000329</t>
+          <t>ORD_0006884</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -31763,7 +31763,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0006885</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -31832,7 +31832,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ORD_0000330</t>
+          <t>ORD_0006885</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -31901,7 +31901,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0006886</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -31970,7 +31970,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ORD_0000331</t>
+          <t>ORD_0006886</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -32039,7 +32039,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ORD_0000332</t>
+          <t>ORD_0006887</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -32108,7 +32108,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ORD_0000333</t>
+          <t>ORD_0006888</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -32181,7 +32181,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ORD_0000334</t>
+          <t>ORD_0006889</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -32254,7 +32254,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ORD_0000335</t>
+          <t>ORD_0006890</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -32323,7 +32323,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ORD_0000336</t>
+          <t>ORD_0006891</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -32392,7 +32392,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ORD_0000337</t>
+          <t>ORD_0006892</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -32461,7 +32461,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0006893</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -32530,7 +32530,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0006893</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -32599,7 +32599,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ORD_0000338</t>
+          <t>ORD_0006893</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -32668,7 +32668,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ORD_0000339</t>
+          <t>ORD_0006894</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -32737,7 +32737,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ORD_0000340</t>
+          <t>ORD_0006895</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -32806,7 +32806,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0006896</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -32879,7 +32879,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0006896</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -32952,7 +32952,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0006896</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -33025,7 +33025,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ORD_0000341</t>
+          <t>ORD_0006896</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -33098,7 +33098,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0006897</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -33167,7 +33167,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0006897</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -33236,7 +33236,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0006897</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -33305,7 +33305,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ORD_0000342</t>
+          <t>ORD_0006897</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -33374,7 +33374,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0006898</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -33443,7 +33443,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ORD_0000343</t>
+          <t>ORD_0006898</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -33512,7 +33512,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ORD_0000344</t>
+          <t>ORD_0006899</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -33581,7 +33581,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ORD_0000345</t>
+          <t>ORD_0006900</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -33654,7 +33654,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ORD_0000346</t>
+          <t>ORD_0006901</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -33727,7 +33727,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ORD_0000347</t>
+          <t>ORD_0006902</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -33796,7 +33796,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ORD_0000348</t>
+          <t>ORD_0006903</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -33865,7 +33865,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ORD_0000349</t>
+          <t>ORD_0006904</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -33934,7 +33934,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ORD_0000350</t>
+          <t>ORD_0006905</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -34003,7 +34003,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ORD_0000351</t>
+          <t>ORD_0006906</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -34072,7 +34072,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ORD_0000352</t>
+          <t>ORD_0006907</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -34141,7 +34141,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0006908</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -34210,7 +34210,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ORD_0000353</t>
+          <t>ORD_0006908</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -34279,7 +34279,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ORD_0000354</t>
+          <t>ORD_0006909</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -34348,7 +34348,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ORD_0000355</t>
+          <t>ORD_0006910</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -34417,7 +34417,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ORD_0000356</t>
+          <t>ORD_0006911</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -34486,7 +34486,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0006912</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -34555,7 +34555,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0006912</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -34624,7 +34624,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ORD_0000357</t>
+          <t>ORD_0006912</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -34693,7 +34693,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ORD_0000358</t>
+          <t>ORD_0006913</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -34766,7 +34766,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ORD_0000359</t>
+          <t>ORD_0006914</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -34835,7 +34835,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ORD_0000360</t>
+          <t>ORD_0006915</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -34904,7 +34904,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ORD_0000361</t>
+          <t>ORD_0006916</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -34977,7 +34977,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ORD_0000362</t>
+          <t>ORD_0006917</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -35046,7 +35046,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0006918</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -35115,7 +35115,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ORD_0000363</t>
+          <t>ORD_0006918</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -35184,7 +35184,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ORD_0000364</t>
+          <t>ORD_0006919</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -35253,7 +35253,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ORD_0000365</t>
+          <t>ORD_0006920</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -35326,7 +35326,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0006921</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -35395,7 +35395,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0006921</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -35464,7 +35464,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ORD_0000366</t>
+          <t>ORD_0006921</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -35533,7 +35533,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ORD_0000367</t>
+          <t>ORD_0006922</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -35602,7 +35602,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0006923</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -35671,7 +35671,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ORD_0000368</t>
+          <t>ORD_0006923</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -35740,7 +35740,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ORD_0000369</t>
+          <t>ORD_0006924</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -35813,7 +35813,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0006925</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -35882,7 +35882,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0006925</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -35951,7 +35951,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0006925</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -36020,7 +36020,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ORD_0000370</t>
+          <t>ORD_0006925</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -36089,7 +36089,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ORD_0000371</t>
+          <t>ORD_0006926</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -36162,7 +36162,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0006927</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -36231,7 +36231,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ORD_0000372</t>
+          <t>ORD_0006927</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -36300,7 +36300,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ORD_0000373</t>
+          <t>ORD_0006928</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -36369,7 +36369,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ORD_0000374</t>
+          <t>ORD_0006929</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -36438,7 +36438,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ORD_0000375</t>
+          <t>ORD_0006930</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -36507,7 +36507,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ORD_0000376</t>
+          <t>ORD_0006931</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -36580,7 +36580,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0006932</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -36649,7 +36649,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0006932</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -36718,7 +36718,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ORD_0000377</t>
+          <t>ORD_0006932</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -36787,7 +36787,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ORD_0000378</t>
+          <t>ORD_0006933</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -36856,7 +36856,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ORD_0000379</t>
+          <t>ORD_0006934</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -36929,7 +36929,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ORD_0000380</t>
+          <t>ORD_0006935</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -36998,7 +36998,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ORD_0000381</t>
+          <t>ORD_0006936</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -37067,7 +37067,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0006937</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -37136,7 +37136,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0006937</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -37205,7 +37205,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ORD_0000382</t>
+          <t>ORD_0006937</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -37274,7 +37274,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ORD_0000383</t>
+          <t>ORD_0006938</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -37343,7 +37343,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ORD_0000384</t>
+          <t>ORD_0006939</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -37412,7 +37412,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ORD_0000385</t>
+          <t>ORD_0006940</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -37481,7 +37481,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ORD_0000386</t>
+          <t>ORD_0006941</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -37550,7 +37550,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ORD_0000387</t>
+          <t>ORD_0006942</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -37619,7 +37619,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ORD_0000388</t>
+          <t>ORD_0006943</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -37688,7 +37688,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ORD_0000389</t>
+          <t>ORD_0006944</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -37757,7 +37757,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ORD_0000390</t>
+          <t>ORD_0006945</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -37830,7 +37830,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ORD_0000391</t>
+          <t>ORD_0006946</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -37899,7 +37899,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ORD_0000392</t>
+          <t>ORD_0006947</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -37972,7 +37972,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ORD_0000393</t>
+          <t>ORD_0006948</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -38041,7 +38041,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ORD_0000394</t>
+          <t>ORD_0006949</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -38114,7 +38114,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ORD_0000395</t>
+          <t>ORD_0006950</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -38187,7 +38187,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0006951</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -38256,7 +38256,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ORD_0000396</t>
+          <t>ORD_0006951</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -38325,7 +38325,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ORD_0000397</t>
+          <t>ORD_0006952</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -38394,7 +38394,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ORD_0000398</t>
+          <t>ORD_0006953</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -38463,7 +38463,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -38532,7 +38532,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -38601,7 +38601,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -38670,7 +38670,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -38739,7 +38739,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -38808,7 +38808,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
@@ -38877,7 +38877,7 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>ORD_0000399</t>
+          <t>ORD_0006954</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
@@ -38946,7 +38946,7 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>ORD_0000400</t>
+          <t>ORD_0006955</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -39015,7 +39015,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0006956</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
@@ -39084,7 +39084,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>ORD_0000401</t>
+          <t>ORD_0006956</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -39153,7 +39153,7 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0006957</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
@@ -39222,7 +39222,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>ORD_0000402</t>
+          <t>ORD_0006957</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
@@ -39291,7 +39291,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>ORD_0000403</t>
+          <t>ORD_0006958</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
@@ -39360,7 +39360,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>ORD_0000404</t>
+          <t>ORD_0006959</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
@@ -39429,7 +39429,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>ORD_0000405</t>
+          <t>ORD_0006960</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
@@ -39498,7 +39498,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0006961</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
@@ -39567,7 +39567,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>ORD_0000406</t>
+          <t>ORD_0006961</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
@@ -39636,7 +39636,7 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>ORD_0000407</t>
+          <t>ORD_0006962</t>
         </is>
       </c>
       <c r="B563" t="inlineStr">
@@ -39705,7 +39705,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>ORD_0000408</t>
+          <t>ORD_0006963</t>
         </is>
       </c>
       <c r="B564" t="inlineStr">
@@ -39778,7 +39778,7 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>ORD_0000409</t>
+          <t>ORD_0006964</t>
         </is>
       </c>
       <c r="B565" t="inlineStr">
@@ -39847,7 +39847,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0006965</t>
         </is>
       </c>
       <c r="B566" t="inlineStr">
@@ -39916,7 +39916,7 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>ORD_0000410</t>
+          <t>ORD_0006965</t>
         </is>
       </c>
       <c r="B567" t="inlineStr">
@@ -39985,7 +39985,7 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>ORD_0000411</t>
+          <t>ORD_0006966</t>
         </is>
       </c>
       <c r="B568" t="inlineStr">
@@ -40054,7 +40054,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>ORD_0000412</t>
+          <t>ORD_0006967</t>
         </is>
       </c>
       <c r="B569" t="inlineStr">
@@ -40123,7 +40123,7 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0006968</t>
         </is>
       </c>
       <c r="B570" t="inlineStr">
@@ -40192,7 +40192,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>ORD_0000413</t>
+          <t>ORD_0006968</t>
         </is>
       </c>
       <c r="B571" t="inlineStr">
@@ -40261,7 +40261,7 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0006969</t>
         </is>
       </c>
       <c r="B572" t="inlineStr">
@@ -40330,7 +40330,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>ORD_0000414</t>
+          <t>ORD_0006969</t>
         </is>
       </c>
       <c r="B573" t="inlineStr">
@@ -40399,7 +40399,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0006970</t>
         </is>
       </c>
       <c r="B574" t="inlineStr">
@@ -40468,7 +40468,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0006970</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
@@ -40537,7 +40537,7 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>ORD_0000415</t>
+          <t>ORD_0006970</t>
         </is>
       </c>
       <c r="B576" t="inlineStr">
@@ -40606,7 +40606,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>ORD_0000416</t>
+          <t>ORD_0006971</t>
         </is>
       </c>
       <c r="B577" t="inlineStr">
@@ -40675,7 +40675,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ORD_0000417</t>
+          <t>ORD_0006972</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
@@ -40744,7 +40744,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0006973</t>
         </is>
       </c>
       <c r="B579" t="inlineStr">
@@ -40813,7 +40813,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0006973</t>
         </is>
       </c>
       <c r="B580" t="inlineStr">
@@ -40882,7 +40882,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0006973</t>
         </is>
       </c>
       <c r="B581" t="inlineStr">
@@ -40951,7 +40951,7 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>ORD_0000418</t>
+          <t>ORD_0006973</t>
         </is>
       </c>
       <c r="B582" t="inlineStr">
@@ -41020,7 +41020,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>ORD_0000419</t>
+          <t>ORD_0006974</t>
         </is>
       </c>
       <c r="B583" t="inlineStr">
@@ -41089,7 +41089,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>ORD_0000420</t>
+          <t>ORD_0006975</t>
         </is>
       </c>
       <c r="B584" t="inlineStr">
@@ -41158,7 +41158,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>ORD_0000421</t>
+          <t>ORD_0006976</t>
         </is>
       </c>
       <c r="B585" t="inlineStr">
@@ -41227,7 +41227,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>ORD_0000422</t>
+          <t>ORD_0006977</t>
         </is>
       </c>
       <c r="B586" t="inlineStr">
@@ -41296,7 +41296,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>ORD_0000423</t>
+          <t>ORD_0006978</t>
         </is>
       </c>
       <c r="B587" t="inlineStr">
@@ -41365,7 +41365,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>ORD_0000424</t>
+          <t>ORD_0006979</t>
         </is>
       </c>
       <c r="B588" t="inlineStr">
@@ -41434,7 +41434,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>ORD_0000425</t>
+          <t>ORD_0006980</t>
         </is>
       </c>
       <c r="B589" t="inlineStr">
@@ -41503,7 +41503,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>ORD_0000426</t>
+          <t>ORD_0006981</t>
         </is>
       </c>
       <c r="B590" t="inlineStr">
@@ -41572,7 +41572,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0006982</t>
         </is>
       </c>
       <c r="B591" t="inlineStr">
@@ -41641,7 +41641,7 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>ORD_0000427</t>
+          <t>ORD_0006982</t>
         </is>
       </c>
       <c r="B592" t="inlineStr">
@@ -41710,7 +41710,7 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0006983</t>
         </is>
       </c>
       <c r="B593" t="inlineStr">
@@ -41779,7 +41779,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0006983</t>
         </is>
       </c>
       <c r="B594" t="inlineStr">
@@ -41848,7 +41848,7 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0006983</t>
         </is>
       </c>
       <c r="B595" t="inlineStr">
@@ -41917,7 +41917,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>ORD_0000428</t>
+          <t>ORD_0006983</t>
         </is>
       </c>
       <c r="B596" t="inlineStr">
@@ -41986,7 +41986,7 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>ORD_0000429</t>
+          <t>ORD_0006984</t>
         </is>
       </c>
       <c r="B597" t="inlineStr">
@@ -42055,7 +42055,7 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>ORD_0000430</t>
+          <t>ORD_0006985</t>
         </is>
       </c>
       <c r="B598" t="inlineStr">
@@ -42124,7 +42124,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0006986</t>
         </is>
       </c>
       <c r="B599" t="inlineStr">
@@ -42193,7 +42193,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0006986</t>
         </is>
       </c>
       <c r="B600" t="inlineStr">
@@ -42262,7 +42262,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0006986</t>
         </is>
       </c>
       <c r="B601" t="inlineStr">
@@ -42331,7 +42331,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>ORD_0000431</t>
+          <t>ORD_0006986</t>
         </is>
       </c>
       <c r="B602" t="inlineStr">
